--- a/target/test-classes/resources/testdata/TestData.xlsx
+++ b/target/test-classes/resources/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aptitudo\Aptitudo_Auto\src\test\java\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB324E2-5051-4200-A007-C07A9EA4C1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA60B5A-450F-49CF-A102-C5B4BE218CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7F1F9E0-F06A-4449-B18B-97F7046185DE}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{F7F1F9E0-F06A-4449-B18B-97F7046185DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>admin</t>
   </si>
@@ -71,6 +71,39 @@
   </si>
   <si>
     <t>Verbal Reasoning</t>
+  </si>
+  <si>
+    <t>Test-SQA-Lead</t>
+  </si>
+  <si>
+    <t>Essay</t>
+  </si>
+  <si>
+    <t>Attention to detail</t>
+  </si>
+  <si>
+    <t>Essay-SQA-Lead</t>
+  </si>
+  <si>
+    <t>Case-Study</t>
+  </si>
+  <si>
+    <t>Critical Thinking</t>
+  </si>
+  <si>
+    <t>Case-SQA-Lead</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Problem-Solving</t>
+  </si>
+  <si>
+    <t>Code-SQA-Lead</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -451,10 +484,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4C4AE3-27A2-4EEF-87DB-CE482C31C29F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +498,7 @@
     <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="330" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -482,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -498,8 +531,89 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>120</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/resources/testdata/TestData.xlsx
+++ b/target/test-classes/resources/testdata/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Aptitudo\Aptitudo_Auto\src\test\java\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDA60B5A-450F-49CF-A102-C5B4BE218CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1417BACF-8E3B-4AB1-BCD7-6BD5BFB861F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{F7F1F9E0-F06A-4449-B18B-97F7046185DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F7F1F9E0-F06A-4449-B18B-97F7046185DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>admin</t>
   </si>
@@ -104,6 +104,40 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Write a function that takes a list of integers and returns the second largest number in the list. If there is no second largest (e.g., all numbers are equal), return None.</t>
+  </si>
+  <si>
+    <t>The list must contain at least two integers</t>
+  </si>
+  <si>
+    <t>The integers can be negative or positive</t>
+  </si>
+  <si>
+    <t>Do not use built-in sort functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input: [10, 20, 4, 45, 99] </t>
+  </si>
+  <si>
+    <t>Output: 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input: [5, 5, 5]  </t>
+  </si>
+  <si>
+    <t>Output: null</t>
+  </si>
+  <si>
+    <t>The largest number is 99
+The second largest is 45</t>
+  </si>
+  <si>
+    <t>All numbers are the same, so there is no distinct second largest</t>
   </si>
 </sst>
 </file>
@@ -139,13 +173,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,21 +524,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4C4AE3-27A2-4EEF-87DB-CE482C31C29F}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="83.28515625" customWidth="1"/>
     <col min="6" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="330" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -515,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -538,7 +579,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -561,7 +602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -584,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -614,6 +655,50 @@
       </c>
       <c r="J5">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="3">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
